--- a/data/dia_2.xlsx
+++ b/data/dia_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/alvaro_garcia_upm_es/Documents/investigacion/flexible_vrp/datos_ejecucion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58357CDD-82DF-45A5-B694-A9A73596C30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D0E7CA-0526-43A7-8293-E1AB94CD6943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="28">
   <si>
     <t>name</t>
   </si>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +571,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1301,10 +1301,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A23" sqref="A13:A23"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,10 +1328,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1339,13 +1339,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1356,10 +1356,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1367,13 +1367,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1384,10 +1384,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1395,13 +1395,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1409,13 +1409,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1426,10 +1426,10 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1440,10 +1440,10 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1451,13 +1451,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1465,13 +1465,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1479,69 +1479,69 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1549,13 +1549,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18">
-        <v>91</v>
+        <v>322</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1563,13 +1563,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1577,13 +1577,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>823</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1591,13 +1591,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1605,13 +1605,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1619,15 +1619,113 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>240</v>
       </c>
       <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>220</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>374</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>212</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>176</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <v>198</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <v>488</v>
+      </c>
+      <c r="D30">
         <v>0</v>
       </c>
     </row>

--- a/data/dia_2.xlsx
+++ b/data/dia_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D0E7CA-0526-43A7-8293-E1AB94CD6943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57E4903-EFAE-4316-B511-754AB3F14B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-4260" yWindow="3585" windowWidth="10275" windowHeight="7875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -541,7 +541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1303,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/dia_2.xlsx
+++ b/data/dia_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vrp_basic_mip\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57E4903-EFAE-4316-B511-754AB3F14B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02162822-BA9D-43F9-998C-59B878A22E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-4260" yWindow="3585" windowWidth="10275" windowHeight="7875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -119,6 +119,99 @@
   </si>
   <si>
     <t>no_stops</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>no_req_total</t>
+  </si>
+  <si>
+    <t>no_opt_total</t>
   </si>
 </sst>
 </file>
@@ -154,9 +247,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,18 +635,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -558,7 +654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -566,7 +662,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -574,7 +670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -582,7 +678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -590,7 +686,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -598,7 +694,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -606,7 +702,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -614,7 +710,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -622,7 +718,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -630,7 +726,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -639,12 +735,30 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13">
+        <f>SUM(comp_quantity_inst1!C2:C16)</f>
+        <v>517</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14">
+        <f>SUM(comp_quantity_inst1!C17:C30)</f>
+        <v>3300</v>
       </c>
     </row>
   </sheetData>
@@ -661,12 +775,12 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -677,7 +791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -688,7 +802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -699,7 +813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -710,7 +824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -721,7 +835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -732,7 +846,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -743,7 +857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -754,7 +868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -765,7 +879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -776,7 +890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -787,7 +901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -798,7 +912,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -809,7 +923,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -820,7 +934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -831,7 +945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -842,7 +956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -853,7 +967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -864,7 +978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -875,7 +989,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -886,7 +1000,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -897,7 +1011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -908,7 +1022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -919,7 +1033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -930,7 +1044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -941,7 +1055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -952,7 +1066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -963,7 +1077,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -974,7 +1088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -985,7 +1099,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -996,7 +1110,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1007,7 +1121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -1018,7 +1132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -1029,7 +1143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -1040,7 +1154,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -1051,7 +1165,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -1062,7 +1176,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1073,7 +1187,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -1084,7 +1198,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -1095,7 +1209,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -1106,7 +1220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -1117,7 +1231,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -1128,7 +1242,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -1139,7 +1253,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -1150,7 +1264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1161,7 +1275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -1172,7 +1286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -1183,7 +1297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -1194,7 +1308,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -1205,7 +1319,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -1216,7 +1330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -1227,7 +1341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -1238,7 +1352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -1249,7 +1363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -1260,7 +1374,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -1271,7 +1385,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -1282,7 +1396,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -1301,432 +1415,522 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C30"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
         <v>98</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
         <v>44</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2">
         <v>38</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
         <v>103</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2">
         <v>4</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2">
         <v>108</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
         <v>10</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14">
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2">
         <v>31</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16">
-        <v>11</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C16" s="2">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2">
         <v>24</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="E17" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2">
         <v>322</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="E18" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2">
         <v>218</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="E19" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2">
         <v>823</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21">
+      <c r="E20" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2">
         <v>3</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
+      <c r="E21" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="E22" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2">
         <v>240</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="E23" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="2">
         <v>220</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="E24" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2">
         <v>374</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="E25" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="2">
         <v>212</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27">
+      <c r="E26" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="2">
         <v>176</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
+      <c r="E27" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29">
+      <c r="E28" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="2">
         <v>198</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30">
+      <c r="E29" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="2">
         <v>488</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>0</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/data/dia_2.xlsx
+++ b/data/dia_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vrp_basic_mip\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02162822-BA9D-43F9-998C-59B878A22E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57E4903-EFAE-4316-B511-754AB3F14B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-4260" yWindow="3585" windowWidth="10275" windowHeight="7875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="28">
   <si>
     <t>name</t>
   </si>
@@ -119,99 +119,6 @@
   </si>
   <si>
     <t>no_stops</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>no_req_total</t>
-  </si>
-  <si>
-    <t>no_opt_total</t>
   </si>
 </sst>
 </file>
@@ -247,12 +154,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,18 +539,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -654,7 +558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -662,7 +566,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -670,7 +574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -678,7 +582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -686,7 +590,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -694,7 +598,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -702,7 +606,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -710,7 +614,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -718,7 +622,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -726,7 +630,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -735,30 +639,12 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13">
-        <f>SUM(comp_quantity_inst1!C2:C16)</f>
-        <v>517</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14">
-        <f>SUM(comp_quantity_inst1!C17:C30)</f>
-        <v>3300</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -775,12 +661,12 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -791,7 +677,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -802,7 +688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -813,7 +699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -824,7 +710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -835,7 +721,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -846,7 +732,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -857,7 +743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -868,7 +754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -879,7 +765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -890,7 +776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -901,7 +787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -912,7 +798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -923,7 +809,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -934,7 +820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -945,7 +831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -956,7 +842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -967,7 +853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -978,7 +864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -989,7 +875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1000,7 +886,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1011,7 +897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1022,7 +908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1033,7 +919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -1044,7 +930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -1055,7 +941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1066,7 +952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1077,7 +963,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1088,7 +974,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1099,7 +985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1110,7 +996,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1121,7 +1007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -1132,7 +1018,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -1143,7 +1029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -1154,7 +1040,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -1165,7 +1051,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -1176,7 +1062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1187,7 +1073,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -1198,7 +1084,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -1209,7 +1095,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -1220,7 +1106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -1231,7 +1117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -1242,7 +1128,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -1253,7 +1139,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -1264,7 +1150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1275,7 +1161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -1286,7 +1172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -1297,7 +1183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -1308,7 +1194,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -1319,7 +1205,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -1330,7 +1216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -1341,7 +1227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -1352,7 +1238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -1363,7 +1249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -1374,7 +1260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -1385,7 +1271,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -1396,7 +1282,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -1415,522 +1301,432 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
         <v>98</v>
       </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>44</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>103</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>108</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2">
-        <v>44</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2">
-        <v>38</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2">
-        <v>103</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2">
-        <v>108</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2">
-        <v>38</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2">
-        <v>31</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="2">
-        <v>11</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
         <v>24</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
         <v>322</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
         <v>218</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
         <v>823</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="2">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21">
         <v>3</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="2">
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
         <v>240</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
         <v>220</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
         <v>374</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
         <v>212</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="2">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
         <v>176</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="2">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29">
         <v>198</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="2">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30">
         <v>488</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30">
         <v>0</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/data/dia_2.xlsx
+++ b/data/dia_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57E4903-EFAE-4316-B511-754AB3F14B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3173770-0A5F-49F0-9C4D-986E98E74C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-4260" yWindow="3585" windowWidth="10275" windowHeight="7875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="30">
   <si>
     <t>name</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>no_stops</t>
+  </si>
+  <si>
+    <t>no_req_total</t>
+  </si>
+  <si>
+    <t>no_opt_total</t>
   </si>
 </sst>
 </file>
@@ -539,18 +545,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -558,7 +564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -566,7 +572,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -574,7 +580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -582,7 +588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -590,7 +596,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -598,7 +604,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -606,7 +612,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -614,7 +620,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -622,7 +628,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -630,7 +636,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -639,12 +645,28 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12">
         <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>3300</v>
       </c>
     </row>
   </sheetData>
@@ -661,12 +683,12 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -677,7 +699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -688,7 +710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -699,7 +721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -710,7 +732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -721,7 +743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -732,7 +754,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -743,7 +765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -754,7 +776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -765,7 +787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -776,7 +798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -787,7 +809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -798,7 +820,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -809,7 +831,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -820,7 +842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -831,7 +853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -842,7 +864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -853,7 +875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -864,7 +886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -875,7 +897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -886,7 +908,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -897,7 +919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -908,7 +930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -919,7 +941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -930,7 +952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -941,7 +963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -952,7 +974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -963,7 +985,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -974,7 +996,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -985,7 +1007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -996,7 +1018,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1007,7 +1029,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -1018,7 +1040,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -1029,7 +1051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -1040,7 +1062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -1051,7 +1073,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -1062,7 +1084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1073,7 +1095,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -1084,7 +1106,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -1095,7 +1117,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -1106,7 +1128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -1117,7 +1139,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -1128,7 +1150,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -1139,7 +1161,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -1150,7 +1172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1161,7 +1183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -1172,7 +1194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -1183,7 +1205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -1194,7 +1216,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -1205,7 +1227,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -1216,7 +1238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -1227,7 +1249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -1238,7 +1260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -1249,7 +1271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -1260,7 +1282,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -1271,7 +1293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -1282,7 +1304,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -1303,13 +1325,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C17" sqref="C17:C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1323,7 +1345,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1337,7 +1359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1351,7 +1373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1365,7 +1387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1379,7 +1401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1393,7 +1415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1407,7 +1429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1421,7 +1443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1435,7 +1457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1449,7 +1471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1463,7 +1485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1477,7 +1499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1491,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1505,7 +1527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1519,7 +1541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1533,7 +1555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1547,7 +1569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1561,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1575,7 +1597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1589,7 +1611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1603,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1617,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1631,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1645,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1659,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1673,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1687,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -1701,7 +1723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1715,7 +1737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>18</v>
       </c>
